--- a/Framework_DX11/Client/Bin/DataFiles/Item_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Info.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB803174-5818-474D-B80A-CCF9BFCE9EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E528B9-4ABD-4E63-9A92-144EE1F59973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A7B2E694-B79B-4751-9028-A4C3A4886DE5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7B2E694-B79B-4751-9028-A4C3A4886DE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Type_Index" sheetId="1" r:id="rId1"/>
-    <sheet name="Spec_Index" sheetId="3" r:id="rId2"/>
-    <sheet name="Item_Spec" sheetId="2" r:id="rId3"/>
-    <sheet name="Item_Initialize" sheetId="4" r:id="rId4"/>
+    <sheet name="Array(Type)_Info" sheetId="5" r:id="rId2"/>
+    <sheet name="Spec_Index" sheetId="3" r:id="rId3"/>
+    <sheet name="Item_Spec" sheetId="2" r:id="rId4"/>
+    <sheet name="Item_Initialize" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
   <si>
     <t>인벤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +251,172 @@
   </si>
   <si>
     <t>머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_USING_BASIC</t>
+  </si>
+  <si>
+    <t>TYPE_USING_EXPENDABLE</t>
+  </si>
+  <si>
+    <t>TYPE_USING_THROW</t>
+  </si>
+  <si>
+    <t>TYPE_USING_ERGO</t>
+  </si>
+  <si>
+    <t>TYPE_USING_RARE_ERGO</t>
+  </si>
+  <si>
+    <t>TYPE_INGRADIENT_GROW</t>
+  </si>
+  <si>
+    <t>TYPE_INGRADIENT_SPECIAL</t>
+  </si>
+  <si>
+    <t>TYPE_FUNTIONAL_COMMON</t>
+  </si>
+  <si>
+    <t>TYPE_WEAPON_NORMAL_BLADE</t>
+  </si>
+  <si>
+    <t>TYPE_WEAPON_NORMAL_HANDLE</t>
+  </si>
+  <si>
+    <t>TYPE_WEAPON_SPECIAL</t>
+  </si>
+  <si>
+    <t>TYPE_REASON_ARM</t>
+  </si>
+  <si>
+    <t>TYPE_DEFENCE_FRAME</t>
+  </si>
+  <si>
+    <t>TYPE_DEFENCE_CONVERTOR</t>
+  </si>
+  <si>
+    <t>TYPE_DEFENCE_CARTRIGE</t>
+  </si>
+  <si>
+    <t>TYPE_DEFENCE_RAINER</t>
+  </si>
+  <si>
+    <t>TYPE_AMULET_COMMON</t>
+  </si>
+  <si>
+    <t>TYPE_COUSTUME_CLOTHES</t>
+  </si>
+  <si>
+    <t>TYPE_COUSTUME_MASK</t>
+  </si>
+  <si>
+    <t>TYPE_COUSTUME_ACC</t>
+  </si>
+  <si>
+    <t>TYPE_GEUSTURE_COMMON</t>
+  </si>
+  <si>
+    <t>TYPE_COLLECTION_NEWS</t>
+  </si>
+  <si>
+    <t>TYPE_COLLECTION_BOOK</t>
+  </si>
+  <si>
+    <t>TYPE_COLLECTION_MEMO</t>
+  </si>
+  <si>
+    <t>EQUIP_WEAPON_BLADE_0</t>
+  </si>
+  <si>
+    <t>EQUIP_WEAPON_HANDLE_0</t>
+  </si>
+  <si>
+    <t>EQUIP_WEAPON_SPECIAL_0</t>
+  </si>
+  <si>
+    <t>EQUIP_WEAPON_BLADE_1</t>
+  </si>
+  <si>
+    <t>EQUIP_WEAPON_HANDLE_1</t>
+  </si>
+  <si>
+    <t>EQUIP_WEAPON_SPECIAL_1</t>
+  </si>
+  <si>
+    <t>EQUIP_RESION_ARM</t>
+  </si>
+  <si>
+    <t>EQUIP_AMULET_0</t>
+  </si>
+  <si>
+    <t>EQUIP_AMULET_1</t>
+  </si>
+  <si>
+    <t>EQUIP_DEFENCE_FRAME</t>
+  </si>
+  <si>
+    <t>EQUIP_DEFENCE_CONVERTOR</t>
+  </si>
+  <si>
+    <t>EQUIP_DEFENCE_CARTRIGE</t>
+  </si>
+  <si>
+    <t>EQUIP_DEFENCE_RAINER</t>
+  </si>
+  <si>
+    <t>EQUIP_USING_TOP_0</t>
+  </si>
+  <si>
+    <t>EQUIP_USING_TOP_1</t>
+  </si>
+  <si>
+    <t>EQUIP_USING_TOP_2</t>
+  </si>
+  <si>
+    <t>EQUIP_USING_BOTTOM_0</t>
+  </si>
+  <si>
+    <t>EQUIP_USING_BOTTOM_1</t>
+  </si>
+  <si>
+    <t>EQUIP_USING_BOTTOM_2</t>
+  </si>
+  <si>
+    <t>EQUIP_USING_BAG_0</t>
+  </si>
+  <si>
+    <t>EQUIP_USING_BAG_1</t>
+  </si>
+  <si>
+    <t>EQUIP_USING_BAG_2</t>
+  </si>
+  <si>
+    <t>EQUIP_USING_BAG_3</t>
+  </si>
+  <si>
+    <t>EQUIP_HEAD_0</t>
+  </si>
+  <si>
+    <t>EQUIP_HEAD_1</t>
+  </si>
+  <si>
+    <t>EQUIP_CLOTHES</t>
+  </si>
+  <si>
+    <t>TYPE_BLADE_PART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TYPE_HANDEL_PART</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF836319-D27B-4882-AE1E-00F27828F5B1}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:C49"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1294,6 +1461,422 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA5A4B6-3374-4F43-BD93-9AC9F99E155C}">
+  <dimension ref="A1:AB27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="34.59765625" customWidth="1"/>
+    <col min="3" max="29" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" t="s">
+        <v>99</v>
+      </c>
+      <c r="W1" t="s">
+        <v>100</v>
+      </c>
+      <c r="X1" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C63327-A7D0-4C4D-95BE-D192A880FB55}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1308,7 +1891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCF30C7-A4C2-4ED6-ADC7-E96BCD199BDA}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1323,7 +1906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009028BC-0AC7-4B3D-8EA8-50B84DD356CE}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Framework_DX11/Client/Bin/DataFiles/Item_Info.xlsx
+++ b/Framework_DX11/Client/Bin/DataFiles/Item_Info.xlsx
@@ -5,19 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\New_1108\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Lies of P\New_1112\Dx11_LiesOfP\Framework_DX11\Client\Bin\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E528B9-4ABD-4E63-9A92-144EE1F59973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55742DE8-9AA3-4DF2-99A2-F43FFAFB4BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A7B2E694-B79B-4751-9028-A4C3A4886DE5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{A7B2E694-B79B-4751-9028-A4C3A4886DE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Type_Index" sheetId="1" r:id="rId1"/>
-    <sheet name="Array(Type)_Info" sheetId="5" r:id="rId2"/>
+    <sheet name="Inven_Array_Info" sheetId="5" r:id="rId2"/>
     <sheet name="Spec_Index" sheetId="3" r:id="rId3"/>
-    <sheet name="Item_Spec" sheetId="2" r:id="rId4"/>
-    <sheet name="Item_Initialize" sheetId="4" r:id="rId5"/>
+    <sheet name="Alter_Index" sheetId="6" r:id="rId4"/>
+    <sheet name="Funcion_Index" sheetId="7" r:id="rId5"/>
+    <sheet name="Inven_Initialize" sheetId="2" r:id="rId6"/>
+    <sheet name="Equip_Initialize" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="502">
   <si>
     <t>인벤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +419,1241 @@
   </si>
   <si>
     <t>TYPE_HANDEL_PART</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_INDEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_IsStack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Name_Ko</t>
+  </si>
+  <si>
+    <t>_Name_Ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_DottedpaperMaker</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_EngagementRing</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_EngagementRing_Blood</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_FadedWhistle</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_FourFingerGlove</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_Friend_of_Doll</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_Piano</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_PortraitOfBoy</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_RedApple</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_Relic</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_Wine</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Advance_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Advance_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Advance_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_CarcassDamage</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_CriticalDamage</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_DollDamage</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Durability</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_ElementPhysicalResis</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_ErgoAmount_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_ErgoAmount_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_FallDamage</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Finesse_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Finesse_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Finesse_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_FuryStamina</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_GaugeLarge</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_GuardWeapon</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_HP_L</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_HP_S</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_HPNatural_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_HPNatural_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_HPSPSMP</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Magazine</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_MaxWeight</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_MaxWeight_L</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_MFAStamina</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_MonsterDamage</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Motivity_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Motivity_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Motivity_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_MotivityFinesse</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_PhysicalDefense</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_PhysicalDefense_L</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_PhysicalResistant</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_PhysicalWeight</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_RecoverErgo</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_RecoverErgo_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_RecoverErgo_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_RegionGauge</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Resistant</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Resistant_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Stamina</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_Stamina_L</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_StaminaSpeed</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Amulet_StrongWeapon</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_AcidGreatSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_Bbayonet</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_ChainScythe</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_Charkram</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_ClockSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_CoilRod</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_CrystalAxe</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_CrystalSpear</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_CrystalSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_DragonGlaive_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_ElectricCutter</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_ElectricHammer</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_FirePickaxe</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_FlameDagger</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_FlameSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_GiantWrench</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_Glaive</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_GreatAxe</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_GreatSpear</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_Halberd</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_Hwando</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_KkabiClub</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_NoseStaff_01_Large</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_NoseStaff_02_Medium</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_NoseStaff_03_Small</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_O_LG_F_S_02</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_O_MG_F_S_02</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_O_MG_S_M_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_O_SG_S_B_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_O_SG_S_P_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_O_SS_F_A_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_Rapier</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_RockDrill</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_Saber</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_ScissorSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_SevenSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_ShieldSpear</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_Shovel</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_SwordLance</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_T_MS_S_M_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_TransformGreatSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_Trident</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_Tsaw</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Blade_UmbrellaSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Catridge_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Catridge_A_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Catridge_A_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Catridge_A_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Catridge_B_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Catridge_B_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Catridge_B_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Catridge_C_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Catridge_C_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Catridge_C_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Convertor_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Convertor_A_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Convertor_A_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Convertor_A_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Convertor_B_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Convertor_B_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Convertor_B_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Convertor_C_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Convertor_C_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Convertor_C_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Frame_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Frame_A_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Frame_A_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Frame_A_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Frame_B_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Frame_B_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Frame_B_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Frame_C_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Frame_C_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Frame_C_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_AcidGreatSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_Bbayonet</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_ChainScythe</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_Charkram</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_ClockSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_CoilRod</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_CrystalAxe</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_CrystalSpear</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_CrystalSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_DragonGlaive_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_ElectricCutter</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_ElectricHammer</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_FirePickaxe</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_FlameDagger</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_FlameSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_GiantWrench</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_Glaive</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_GreaatSpear</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_GreatAxe</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_Halberd</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_Hwando</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_KkabiClub</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_NoseStaff_01_Large</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_NoseStaff_02_Medium</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_NoseStaff_03_Small</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_O_LG_F_S_02</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_O_MG_F_S_02</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_O_MG_S_M_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_O_SG_S_B_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_O_SG_S_P_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_O_SS_F_A_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_Rapier</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_RockDrill</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_Saber</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_ScissorSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_SevenSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_ShieldSpear</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_Shovel</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_SwordLance</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_T_MS_S_M_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_TransformGreatSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_Trident</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_Tsaw</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Handle_UmbrellaSword</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_ChainScythe_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_Charkram_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_CrystalSword_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_DragonGlaive_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_Hwando_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_KkabiClub_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_NoseStaff_01_Large</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_NoseStaff_02_Medium</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_NoseStaff_03_Small</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_ScissorSword_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_SevenSword_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_TransformGreatSword_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_Trident_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Heroic_UmbrellaSword_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Ample_Property_Purification</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Ample_Property-Resistance</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Ample_Special_Purification</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Ample_Special-Resistance</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Arm_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Arm_AcidLuncher</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Arm_Aegis</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Arm_FA_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Arm_FB_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Arm_GG_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Arm_PB_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Arm_ShotGun</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Arm_SniperCannon</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_BlackBox_Benigni</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_BlackBox_Krat</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_BossErgo_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_BossErgo_02</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_BossErgo_03</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_BossErgo_04</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_BossErgo_05</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_BossErgo_06</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_BossErgo_07</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_BossErgo_08</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_BossErgo_09</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_BossErgo_10</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Canister_Acid_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Canister_Electric_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Canister_Fire_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Cartridge_Frenzy_L</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Cartridge_Frenzy_M</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Cartridge_Frenzy_S</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Cartridge_Stamina</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Chain</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Core</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Crank_Advance</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Crank_Finesse</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Crank_Motivity</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Crank_Reset</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Death</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_L1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_L2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_L3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_M1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_M1_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_M2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_M3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_S1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_S2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_S3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_S4</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_XL1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_XL2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_XL3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DropErgo_XL4</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_DustCat</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_EgnimaAssemblyTool</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_EmergencyRepairtool</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Envelop</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Ergo_Protect</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_ErgoAbsorber</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_GoldenFruit</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Granade_Acid_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Granade_Cluster_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Granade_ShotPut_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_GrindStone_Acid</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_GrindStone_Critical</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_GrindStone_Destroy</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_GrindStone_Durability</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_GrindStone_Electric</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_GrindStone_Fire</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_GrindStone_Guard</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_GrindStone_Perfect</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Helper</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_HighFrameAmplifier</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Lamp</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Lamp_On</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_LampBuff</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Molotov</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Moonstone_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Moonstone_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Moonstone_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Moonstone_4</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Moonstone_H1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Moonstone_H2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Newspaper</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Oilbottle</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Overcharger</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_PiercingSpike</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Potion_01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Potion_02</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Potion_03</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Potion_04</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Quartz</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_RegionCall</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_RegionPlug</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Sharpentool</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Sharpentool_Acid</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Sharpentool_Alterationtool</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Sharpentool_Elec</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Sharpentool_Fire</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_SlaveRecovery</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Teleport</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Teleport_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_ThermiteFire</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Throw_Gear</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_Throw_Saw</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_ThrowBattery</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_TreeFacilit_L</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_TreeFacilit_M</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_TreeFacilit_S</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_VenigniCoin</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_Acid</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_Advance</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_Berserker</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_Brave</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_Electric</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_Explosion</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_Fire</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_Friend</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_guts</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_Heal</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_Protect</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_Provoke</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Item_WishStone_Stamina</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_A_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_A_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_A_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_A_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_B_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_B_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_B_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_B_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_C_0</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_C_1</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_C_2</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Lining_C_3</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_Q_ArmOfGod</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_AntoniaMedicine</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_Belle</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_BlackBox_Benigni01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_BlackBox_Benigni02</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_BlackBox_Benigni03</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_BlackBox_Krat01</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_BlackBox_Krat02</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_BlackBox_Krat03</t>
+  </si>
+  <si>
+    <t>Prototype_Texture_Item_TorisionCoil_BrokenBabyDoll</t>
+  </si>
+  <si>
+    <t>_Texture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_IsUse(사용 여부 체크, 이거 true면 Uirender_Client에서 텍스쳐 제작)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플람베르쥬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Weigth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_DamegeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Abillty_Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Abillty_Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Abillty_Evolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Desc_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Desc_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Desc_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Desc_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스쳐명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템명 (게임에 표시할 내용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력보정(동력)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력보정(기술)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력보정(진화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개조1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Alter0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개조2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Alter1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Index</t>
+  </si>
+  <si>
+    <t>_Name_Ko</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명1</t>
+  </si>
+  <si>
+    <t>설명1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명2</t>
+  </si>
+  <si>
+    <t>설명2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스쳐 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_TexIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개조3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Alter2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_InvenType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입(인벤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분(역할)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Ergo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득 에르고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,20 +1678,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -463,8 +1721,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -804,7 +2068,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1462,10 +2726,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA5A4B6-3374-4F43-BD93-9AC9F99E155C}">
-  <dimension ref="A1:AB27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1474,401 +2738,1070 @@
     <col min="3" max="29" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2">
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>1</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>1</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>1</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="P3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>1</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>1</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>1</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>1</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4">
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V4">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1">
         <v>1</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>1</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>1</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A6">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A7">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A8">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A9">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A10">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A11">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A12">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E12">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A13">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A14">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A15">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I15">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A16">
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L16">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A17">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M17">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A18">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N18">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A19">
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O19">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A20">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J20">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
         <v>1</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A21">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AB21">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A22">
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Z22">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1">
         <v>1</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A23">
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="Z23">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1">
         <v>1</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A24">
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A26">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A27">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>79</v>
       </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1878,40 +3811,5814 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C63327-A7D0-4C4D-95BE-D192A880FB55}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V337"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="13.19921875" customWidth="1"/>
+    <col min="3" max="3" width="52.8984375" customWidth="1"/>
+    <col min="4" max="4" width="6.8984375" customWidth="1"/>
+    <col min="5" max="5" width="27.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I1" t="s">
+        <v>465</v>
+      </c>
+      <c r="J1" t="s">
+        <v>466</v>
+      </c>
+      <c r="K1" t="s">
+        <v>467</v>
+      </c>
+      <c r="L1" t="s">
+        <v>468</v>
+      </c>
+      <c r="M1" t="s">
+        <v>469</v>
+      </c>
+      <c r="N1" t="s">
+        <v>470</v>
+      </c>
+      <c r="O1" t="s">
+        <v>471</v>
+      </c>
+      <c r="P1" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>471</v>
+      </c>
+      <c r="R1" t="s">
+        <v>471</v>
+      </c>
+      <c r="S1" t="s">
+        <v>472</v>
+      </c>
+      <c r="T1" t="s">
+        <v>474</v>
+      </c>
+      <c r="U1" t="s">
+        <v>490</v>
+      </c>
+      <c r="V1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>492</v>
+      </c>
+      <c r="I2" t="s">
+        <v>450</v>
+      </c>
+      <c r="J2" t="s">
+        <v>451</v>
+      </c>
+      <c r="K2" t="s">
+        <v>452</v>
+      </c>
+      <c r="L2" t="s">
+        <v>453</v>
+      </c>
+      <c r="M2" t="s">
+        <v>454</v>
+      </c>
+      <c r="N2" t="s">
+        <v>455</v>
+      </c>
+      <c r="O2" t="s">
+        <v>456</v>
+      </c>
+      <c r="P2" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>458</v>
+      </c>
+      <c r="R2" t="s">
+        <v>459</v>
+      </c>
+      <c r="S2" t="s">
+        <v>473</v>
+      </c>
+      <c r="T2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U2" t="s">
+        <v>491</v>
+      </c>
+      <c r="V2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="C62" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="C64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="C65" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>67</v>
+      </c>
+      <c r="C70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>68</v>
+      </c>
+      <c r="C71" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="C72" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="C74" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>73</v>
+      </c>
+      <c r="C76" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="C77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>77</v>
+      </c>
+      <c r="C80" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>78</v>
+      </c>
+      <c r="C81" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>79</v>
+      </c>
+      <c r="C82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="C83" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>81</v>
+      </c>
+      <c r="C84" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>83</v>
+      </c>
+      <c r="C86" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>85</v>
+      </c>
+      <c r="C88" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>87</v>
+      </c>
+      <c r="C90" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>88</v>
+      </c>
+      <c r="C91" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>91</v>
+      </c>
+      <c r="C94" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>93</v>
+      </c>
+      <c r="C96" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>94</v>
+      </c>
+      <c r="C97" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>95</v>
+      </c>
+      <c r="C98" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>96</v>
+      </c>
+      <c r="C99" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100">
+        <v>97</v>
+      </c>
+      <c r="C100" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101">
+        <v>98</v>
+      </c>
+      <c r="C101" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>99</v>
+      </c>
+      <c r="C102" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <v>101</v>
+      </c>
+      <c r="C104" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105">
+        <v>102</v>
+      </c>
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107">
+        <v>104</v>
+      </c>
+      <c r="C107" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <v>105</v>
+      </c>
+      <c r="C108" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>106</v>
+      </c>
+      <c r="C109" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>107</v>
+      </c>
+      <c r="C110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>108</v>
+      </c>
+      <c r="C111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>109</v>
+      </c>
+      <c r="C112" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>110</v>
+      </c>
+      <c r="C113" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>111</v>
+      </c>
+      <c r="C114" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <v>112</v>
+      </c>
+      <c r="C115" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <v>113</v>
+      </c>
+      <c r="C116" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>114</v>
+      </c>
+      <c r="C117" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>115</v>
+      </c>
+      <c r="B118">
+        <v>115</v>
+      </c>
+      <c r="C118" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119">
+        <v>116</v>
+      </c>
+      <c r="C119" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120">
+        <v>117</v>
+      </c>
+      <c r="C120" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <v>118</v>
+      </c>
+      <c r="C121" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122">
+        <v>119</v>
+      </c>
+      <c r="C122" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123">
+        <v>120</v>
+      </c>
+      <c r="C123" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <v>121</v>
+      </c>
+      <c r="C124" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125">
+        <v>122</v>
+      </c>
+      <c r="C125" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126">
+        <v>123</v>
+      </c>
+      <c r="C126" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127">
+        <v>124</v>
+      </c>
+      <c r="C127" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128">
+        <v>125</v>
+      </c>
+      <c r="C128" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129">
+        <v>126</v>
+      </c>
+      <c r="C129" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <v>127</v>
+      </c>
+      <c r="C130" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131">
+        <v>128</v>
+      </c>
+      <c r="C131" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132">
+        <v>129</v>
+      </c>
+      <c r="C132" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <v>130</v>
+      </c>
+      <c r="C133" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134">
+        <v>131</v>
+      </c>
+      <c r="C134" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135">
+        <v>132</v>
+      </c>
+      <c r="C135" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136">
+        <v>133</v>
+      </c>
+      <c r="C136" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137">
+        <v>134</v>
+      </c>
+      <c r="C137" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138">
+        <v>135</v>
+      </c>
+      <c r="C138" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139">
+        <v>136</v>
+      </c>
+      <c r="C139" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140">
+        <v>137</v>
+      </c>
+      <c r="C140" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141">
+        <v>138</v>
+      </c>
+      <c r="C141" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142">
+        <v>139</v>
+      </c>
+      <c r="C142" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143">
+        <v>140</v>
+      </c>
+      <c r="C143" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144">
+        <v>141</v>
+      </c>
+      <c r="C144" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145">
+        <v>142</v>
+      </c>
+      <c r="C145" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146">
+        <v>143</v>
+      </c>
+      <c r="C146" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147">
+        <v>144</v>
+      </c>
+      <c r="C147" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>145</v>
+      </c>
+      <c r="C148" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149">
+        <v>146</v>
+      </c>
+      <c r="C149" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>147</v>
+      </c>
+      <c r="C150" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151">
+        <v>148</v>
+      </c>
+      <c r="C151" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152">
+        <v>149</v>
+      </c>
+      <c r="C152" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153">
+        <v>150</v>
+      </c>
+      <c r="C153" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154">
+        <v>151</v>
+      </c>
+      <c r="C154" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155">
+        <v>152</v>
+      </c>
+      <c r="C155" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156">
+        <v>153</v>
+      </c>
+      <c r="C156" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157">
+        <v>154</v>
+      </c>
+      <c r="C157" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>155</v>
+      </c>
+      <c r="B158">
+        <v>155</v>
+      </c>
+      <c r="C158" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>156</v>
+      </c>
+      <c r="B159">
+        <v>156</v>
+      </c>
+      <c r="C159" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>157</v>
+      </c>
+      <c r="B160">
+        <v>157</v>
+      </c>
+      <c r="C160" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161">
+        <v>158</v>
+      </c>
+      <c r="C161" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>159</v>
+      </c>
+      <c r="B162">
+        <v>159</v>
+      </c>
+      <c r="C162" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>160</v>
+      </c>
+      <c r="B163">
+        <v>160</v>
+      </c>
+      <c r="C163" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164">
+        <v>161</v>
+      </c>
+      <c r="C164" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165">
+        <v>162</v>
+      </c>
+      <c r="C165" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166">
+        <v>163</v>
+      </c>
+      <c r="C166" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167">
+        <v>164</v>
+      </c>
+      <c r="C167" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168">
+        <v>165</v>
+      </c>
+      <c r="C168" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169">
+        <v>166</v>
+      </c>
+      <c r="C169" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>167</v>
+      </c>
+      <c r="B170">
+        <v>167</v>
+      </c>
+      <c r="C170" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>168</v>
+      </c>
+      <c r="B171">
+        <v>168</v>
+      </c>
+      <c r="C171" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>169</v>
+      </c>
+      <c r="B172">
+        <v>169</v>
+      </c>
+      <c r="C172" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>170</v>
+      </c>
+      <c r="B173">
+        <v>170</v>
+      </c>
+      <c r="C173" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>171</v>
+      </c>
+      <c r="B174">
+        <v>171</v>
+      </c>
+      <c r="C174" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>172</v>
+      </c>
+      <c r="B175">
+        <v>172</v>
+      </c>
+      <c r="C175" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>173</v>
+      </c>
+      <c r="B176">
+        <v>173</v>
+      </c>
+      <c r="C176" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>174</v>
+      </c>
+      <c r="B177">
+        <v>174</v>
+      </c>
+      <c r="C177" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A178">
+        <v>175</v>
+      </c>
+      <c r="B178">
+        <v>175</v>
+      </c>
+      <c r="C178" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A179">
+        <v>176</v>
+      </c>
+      <c r="B179">
+        <v>176</v>
+      </c>
+      <c r="C179" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A180">
+        <v>177</v>
+      </c>
+      <c r="B180">
+        <v>177</v>
+      </c>
+      <c r="C180" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A181">
+        <v>178</v>
+      </c>
+      <c r="B181">
+        <v>178</v>
+      </c>
+      <c r="C181" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A182">
+        <v>179</v>
+      </c>
+      <c r="B182">
+        <v>179</v>
+      </c>
+      <c r="C182" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A183">
+        <v>180</v>
+      </c>
+      <c r="B183">
+        <v>180</v>
+      </c>
+      <c r="C183" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A184">
+        <v>181</v>
+      </c>
+      <c r="B184">
+        <v>181</v>
+      </c>
+      <c r="C184" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A185">
+        <v>182</v>
+      </c>
+      <c r="B185">
+        <v>182</v>
+      </c>
+      <c r="C185" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>183</v>
+      </c>
+      <c r="B186">
+        <v>183</v>
+      </c>
+      <c r="C186" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>184</v>
+      </c>
+      <c r="B187">
+        <v>184</v>
+      </c>
+      <c r="C187" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>185</v>
+      </c>
+      <c r="B188">
+        <v>185</v>
+      </c>
+      <c r="C188" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>186</v>
+      </c>
+      <c r="B189">
+        <v>186</v>
+      </c>
+      <c r="C189" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>187</v>
+      </c>
+      <c r="B190">
+        <v>187</v>
+      </c>
+      <c r="C190" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>188</v>
+      </c>
+      <c r="B191">
+        <v>188</v>
+      </c>
+      <c r="C191" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>189</v>
+      </c>
+      <c r="B192">
+        <v>189</v>
+      </c>
+      <c r="C192" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>190</v>
+      </c>
+      <c r="B193">
+        <v>190</v>
+      </c>
+      <c r="C193" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>191</v>
+      </c>
+      <c r="B194">
+        <v>191</v>
+      </c>
+      <c r="C194" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>192</v>
+      </c>
+      <c r="B195">
+        <v>192</v>
+      </c>
+      <c r="C195" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>193</v>
+      </c>
+      <c r="B196">
+        <v>193</v>
+      </c>
+      <c r="C196" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>194</v>
+      </c>
+      <c r="B197">
+        <v>194</v>
+      </c>
+      <c r="C197" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>195</v>
+      </c>
+      <c r="B198">
+        <v>195</v>
+      </c>
+      <c r="C198" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>196</v>
+      </c>
+      <c r="B199">
+        <v>196</v>
+      </c>
+      <c r="C199" t="s">
+        <v>308</v>
+      </c>
+      <c r="E199" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>197</v>
+      </c>
+      <c r="B200">
+        <v>197</v>
+      </c>
+      <c r="C200" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>198</v>
+      </c>
+      <c r="B201">
+        <v>198</v>
+      </c>
+      <c r="C201" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A202">
+        <v>199</v>
+      </c>
+      <c r="B202">
+        <v>199</v>
+      </c>
+      <c r="C202" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A203">
+        <v>200</v>
+      </c>
+      <c r="B203">
+        <v>200</v>
+      </c>
+      <c r="C203" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A204">
+        <v>201</v>
+      </c>
+      <c r="B204">
+        <v>201</v>
+      </c>
+      <c r="C204" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A205">
+        <v>202</v>
+      </c>
+      <c r="B205">
+        <v>202</v>
+      </c>
+      <c r="C205" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A206">
+        <v>203</v>
+      </c>
+      <c r="B206">
+        <v>203</v>
+      </c>
+      <c r="C206" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A207">
+        <v>204</v>
+      </c>
+      <c r="B207">
+        <v>204</v>
+      </c>
+      <c r="C207" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A208">
+        <v>205</v>
+      </c>
+      <c r="B208">
+        <v>205</v>
+      </c>
+      <c r="C208" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A209">
+        <v>206</v>
+      </c>
+      <c r="B209">
+        <v>206</v>
+      </c>
+      <c r="C209" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A210">
+        <v>207</v>
+      </c>
+      <c r="B210">
+        <v>207</v>
+      </c>
+      <c r="C210" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A211">
+        <v>208</v>
+      </c>
+      <c r="B211">
+        <v>208</v>
+      </c>
+      <c r="C211" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A212">
+        <v>209</v>
+      </c>
+      <c r="B212">
+        <v>209</v>
+      </c>
+      <c r="C212" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A213">
+        <v>210</v>
+      </c>
+      <c r="B213">
+        <v>210</v>
+      </c>
+      <c r="C213" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A214">
+        <v>211</v>
+      </c>
+      <c r="B214">
+        <v>211</v>
+      </c>
+      <c r="C214" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A215">
+        <v>212</v>
+      </c>
+      <c r="B215">
+        <v>212</v>
+      </c>
+      <c r="C215" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A216">
+        <v>213</v>
+      </c>
+      <c r="B216">
+        <v>213</v>
+      </c>
+      <c r="C216" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A217">
+        <v>214</v>
+      </c>
+      <c r="B217">
+        <v>214</v>
+      </c>
+      <c r="C217" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A218">
+        <v>215</v>
+      </c>
+      <c r="B218">
+        <v>215</v>
+      </c>
+      <c r="C218" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A219">
+        <v>216</v>
+      </c>
+      <c r="B219">
+        <v>216</v>
+      </c>
+      <c r="C219" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A220">
+        <v>217</v>
+      </c>
+      <c r="B220">
+        <v>217</v>
+      </c>
+      <c r="C220" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A221">
+        <v>218</v>
+      </c>
+      <c r="B221">
+        <v>218</v>
+      </c>
+      <c r="C221" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A222">
+        <v>219</v>
+      </c>
+      <c r="B222">
+        <v>219</v>
+      </c>
+      <c r="C222" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A223">
+        <v>220</v>
+      </c>
+      <c r="B223">
+        <v>220</v>
+      </c>
+      <c r="C223" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A224">
+        <v>221</v>
+      </c>
+      <c r="B224">
+        <v>221</v>
+      </c>
+      <c r="C224" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A225">
+        <v>222</v>
+      </c>
+      <c r="B225">
+        <v>222</v>
+      </c>
+      <c r="C225" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A226">
+        <v>223</v>
+      </c>
+      <c r="B226">
+        <v>223</v>
+      </c>
+      <c r="C226" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A227">
+        <v>224</v>
+      </c>
+      <c r="B227">
+        <v>224</v>
+      </c>
+      <c r="C227" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A228">
+        <v>225</v>
+      </c>
+      <c r="B228">
+        <v>225</v>
+      </c>
+      <c r="C228" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A229">
+        <v>226</v>
+      </c>
+      <c r="B229">
+        <v>226</v>
+      </c>
+      <c r="C229" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A230">
+        <v>227</v>
+      </c>
+      <c r="B230">
+        <v>227</v>
+      </c>
+      <c r="C230" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A231">
+        <v>228</v>
+      </c>
+      <c r="B231">
+        <v>228</v>
+      </c>
+      <c r="C231" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A232">
+        <v>229</v>
+      </c>
+      <c r="B232">
+        <v>229</v>
+      </c>
+      <c r="C232" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A233">
+        <v>230</v>
+      </c>
+      <c r="B233">
+        <v>230</v>
+      </c>
+      <c r="C233" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A234">
+        <v>231</v>
+      </c>
+      <c r="B234">
+        <v>231</v>
+      </c>
+      <c r="C234" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A235">
+        <v>232</v>
+      </c>
+      <c r="B235">
+        <v>232</v>
+      </c>
+      <c r="C235" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A236">
+        <v>233</v>
+      </c>
+      <c r="B236">
+        <v>233</v>
+      </c>
+      <c r="C236" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A237">
+        <v>234</v>
+      </c>
+      <c r="B237">
+        <v>234</v>
+      </c>
+      <c r="C237" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A238">
+        <v>235</v>
+      </c>
+      <c r="B238">
+        <v>235</v>
+      </c>
+      <c r="C238" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A239">
+        <v>236</v>
+      </c>
+      <c r="B239">
+        <v>236</v>
+      </c>
+      <c r="C239" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A240">
+        <v>237</v>
+      </c>
+      <c r="B240">
+        <v>237</v>
+      </c>
+      <c r="C240" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A241">
+        <v>238</v>
+      </c>
+      <c r="B241">
+        <v>238</v>
+      </c>
+      <c r="C241" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A242">
+        <v>239</v>
+      </c>
+      <c r="B242">
+        <v>239</v>
+      </c>
+      <c r="C242" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A243">
+        <v>240</v>
+      </c>
+      <c r="B243">
+        <v>240</v>
+      </c>
+      <c r="C243" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A244">
+        <v>241</v>
+      </c>
+      <c r="B244">
+        <v>241</v>
+      </c>
+      <c r="C244" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A245">
+        <v>242</v>
+      </c>
+      <c r="B245">
+        <v>242</v>
+      </c>
+      <c r="C245" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A246">
+        <v>243</v>
+      </c>
+      <c r="B246">
+        <v>243</v>
+      </c>
+      <c r="C246" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A247">
+        <v>244</v>
+      </c>
+      <c r="B247">
+        <v>244</v>
+      </c>
+      <c r="C247" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A248">
+        <v>245</v>
+      </c>
+      <c r="B248">
+        <v>245</v>
+      </c>
+      <c r="C248" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A249">
+        <v>246</v>
+      </c>
+      <c r="B249">
+        <v>246</v>
+      </c>
+      <c r="C249" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A250">
+        <v>247</v>
+      </c>
+      <c r="B250">
+        <v>247</v>
+      </c>
+      <c r="C250" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A251">
+        <v>248</v>
+      </c>
+      <c r="B251">
+        <v>248</v>
+      </c>
+      <c r="C251" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A252">
+        <v>249</v>
+      </c>
+      <c r="B252">
+        <v>249</v>
+      </c>
+      <c r="C252" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A253">
+        <v>250</v>
+      </c>
+      <c r="B253">
+        <v>250</v>
+      </c>
+      <c r="C253" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A254">
+        <v>251</v>
+      </c>
+      <c r="B254">
+        <v>251</v>
+      </c>
+      <c r="C254" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A255">
+        <v>252</v>
+      </c>
+      <c r="B255">
+        <v>252</v>
+      </c>
+      <c r="C255" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A256">
+        <v>253</v>
+      </c>
+      <c r="B256">
+        <v>253</v>
+      </c>
+      <c r="C256" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A257">
+        <v>254</v>
+      </c>
+      <c r="B257">
+        <v>254</v>
+      </c>
+      <c r="C257" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A258">
+        <v>255</v>
+      </c>
+      <c r="B258">
+        <v>255</v>
+      </c>
+      <c r="C258" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A259">
+        <v>256</v>
+      </c>
+      <c r="B259">
+        <v>256</v>
+      </c>
+      <c r="C259" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A260">
+        <v>257</v>
+      </c>
+      <c r="B260">
+        <v>257</v>
+      </c>
+      <c r="C260" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A261">
+        <v>258</v>
+      </c>
+      <c r="B261">
+        <v>258</v>
+      </c>
+      <c r="C261" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A262">
+        <v>259</v>
+      </c>
+      <c r="B262">
+        <v>259</v>
+      </c>
+      <c r="C262" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A263">
+        <v>260</v>
+      </c>
+      <c r="B263">
+        <v>260</v>
+      </c>
+      <c r="C263" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A264">
+        <v>261</v>
+      </c>
+      <c r="B264">
+        <v>261</v>
+      </c>
+      <c r="C264" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A265">
+        <v>262</v>
+      </c>
+      <c r="B265">
+        <v>262</v>
+      </c>
+      <c r="C265" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A266">
+        <v>263</v>
+      </c>
+      <c r="B266">
+        <v>263</v>
+      </c>
+      <c r="C266" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A267">
+        <v>264</v>
+      </c>
+      <c r="B267">
+        <v>264</v>
+      </c>
+      <c r="C267" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A268">
+        <v>265</v>
+      </c>
+      <c r="B268">
+        <v>265</v>
+      </c>
+      <c r="C268" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A269">
+        <v>266</v>
+      </c>
+      <c r="B269">
+        <v>266</v>
+      </c>
+      <c r="C269" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A270">
+        <v>267</v>
+      </c>
+      <c r="B270">
+        <v>267</v>
+      </c>
+      <c r="C270" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A271">
+        <v>268</v>
+      </c>
+      <c r="B271">
+        <v>268</v>
+      </c>
+      <c r="C271" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A272">
+        <v>269</v>
+      </c>
+      <c r="B272">
+        <v>269</v>
+      </c>
+      <c r="C272" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A273">
+        <v>270</v>
+      </c>
+      <c r="B273">
+        <v>270</v>
+      </c>
+      <c r="C273" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A274">
+        <v>271</v>
+      </c>
+      <c r="B274">
+        <v>271</v>
+      </c>
+      <c r="C274" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A275">
+        <v>272</v>
+      </c>
+      <c r="B275">
+        <v>272</v>
+      </c>
+      <c r="C275" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A276">
+        <v>273</v>
+      </c>
+      <c r="B276">
+        <v>273</v>
+      </c>
+      <c r="C276" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A277">
+        <v>274</v>
+      </c>
+      <c r="B277">
+        <v>274</v>
+      </c>
+      <c r="C277" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A278">
+        <v>275</v>
+      </c>
+      <c r="B278">
+        <v>275</v>
+      </c>
+      <c r="C278" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A279">
+        <v>276</v>
+      </c>
+      <c r="B279">
+        <v>276</v>
+      </c>
+      <c r="C279" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A280">
+        <v>277</v>
+      </c>
+      <c r="B280">
+        <v>277</v>
+      </c>
+      <c r="C280" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A281">
+        <v>278</v>
+      </c>
+      <c r="B281">
+        <v>278</v>
+      </c>
+      <c r="C281" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A282">
+        <v>279</v>
+      </c>
+      <c r="B282">
+        <v>279</v>
+      </c>
+      <c r="C282" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A283">
+        <v>280</v>
+      </c>
+      <c r="B283">
+        <v>280</v>
+      </c>
+      <c r="C283" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A284">
+        <v>281</v>
+      </c>
+      <c r="B284">
+        <v>281</v>
+      </c>
+      <c r="C284" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A285">
+        <v>282</v>
+      </c>
+      <c r="B285">
+        <v>282</v>
+      </c>
+      <c r="C285" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A286">
+        <v>283</v>
+      </c>
+      <c r="B286">
+        <v>283</v>
+      </c>
+      <c r="C286" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A287">
+        <v>284</v>
+      </c>
+      <c r="B287">
+        <v>284</v>
+      </c>
+      <c r="C287" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A288">
+        <v>285</v>
+      </c>
+      <c r="B288">
+        <v>285</v>
+      </c>
+      <c r="C288" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A289">
+        <v>286</v>
+      </c>
+      <c r="B289">
+        <v>286</v>
+      </c>
+      <c r="C289" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A290">
+        <v>287</v>
+      </c>
+      <c r="B290">
+        <v>287</v>
+      </c>
+      <c r="C290" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A291">
+        <v>288</v>
+      </c>
+      <c r="B291">
+        <v>288</v>
+      </c>
+      <c r="C291" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A292">
+        <v>289</v>
+      </c>
+      <c r="B292">
+        <v>289</v>
+      </c>
+      <c r="C292" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A293">
+        <v>290</v>
+      </c>
+      <c r="B293">
+        <v>290</v>
+      </c>
+      <c r="C293" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A294">
+        <v>291</v>
+      </c>
+      <c r="B294">
+        <v>291</v>
+      </c>
+      <c r="C294" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A295">
+        <v>292</v>
+      </c>
+      <c r="B295">
+        <v>292</v>
+      </c>
+      <c r="C295" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A296">
+        <v>293</v>
+      </c>
+      <c r="B296">
+        <v>293</v>
+      </c>
+      <c r="C296" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A297">
+        <v>294</v>
+      </c>
+      <c r="B297">
+        <v>294</v>
+      </c>
+      <c r="C297" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A298">
+        <v>295</v>
+      </c>
+      <c r="B298">
+        <v>295</v>
+      </c>
+      <c r="C298" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A299">
+        <v>296</v>
+      </c>
+      <c r="B299">
+        <v>296</v>
+      </c>
+      <c r="C299" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A300">
+        <v>297</v>
+      </c>
+      <c r="B300">
+        <v>297</v>
+      </c>
+      <c r="C300" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A301">
+        <v>298</v>
+      </c>
+      <c r="B301">
+        <v>298</v>
+      </c>
+      <c r="C301" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A302">
+        <v>299</v>
+      </c>
+      <c r="B302">
+        <v>299</v>
+      </c>
+      <c r="C302" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A303">
+        <v>300</v>
+      </c>
+      <c r="B303">
+        <v>300</v>
+      </c>
+      <c r="C303" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A304">
+        <v>301</v>
+      </c>
+      <c r="B304">
+        <v>301</v>
+      </c>
+      <c r="C304" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A305">
+        <v>302</v>
+      </c>
+      <c r="B305">
+        <v>302</v>
+      </c>
+      <c r="C305" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A306">
+        <v>303</v>
+      </c>
+      <c r="B306">
+        <v>303</v>
+      </c>
+      <c r="C306" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A307">
+        <v>304</v>
+      </c>
+      <c r="B307">
+        <v>304</v>
+      </c>
+      <c r="C307" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A308">
+        <v>305</v>
+      </c>
+      <c r="B308">
+        <v>305</v>
+      </c>
+      <c r="C308" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A309">
+        <v>306</v>
+      </c>
+      <c r="B309">
+        <v>306</v>
+      </c>
+      <c r="C309" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A310">
+        <v>307</v>
+      </c>
+      <c r="B310">
+        <v>307</v>
+      </c>
+      <c r="C310" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A311">
+        <v>308</v>
+      </c>
+      <c r="B311">
+        <v>308</v>
+      </c>
+      <c r="C311" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A312">
+        <v>309</v>
+      </c>
+      <c r="B312">
+        <v>309</v>
+      </c>
+      <c r="C312" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A313">
+        <v>310</v>
+      </c>
+      <c r="B313">
+        <v>310</v>
+      </c>
+      <c r="C313" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A314">
+        <v>311</v>
+      </c>
+      <c r="B314">
+        <v>311</v>
+      </c>
+      <c r="C314" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A315">
+        <v>312</v>
+      </c>
+      <c r="B315">
+        <v>312</v>
+      </c>
+      <c r="C315" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A316">
+        <v>313</v>
+      </c>
+      <c r="B316">
+        <v>313</v>
+      </c>
+      <c r="C316" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A317">
+        <v>314</v>
+      </c>
+      <c r="B317">
+        <v>314</v>
+      </c>
+      <c r="C317" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A318">
+        <v>315</v>
+      </c>
+      <c r="B318">
+        <v>315</v>
+      </c>
+      <c r="C318" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A319">
+        <v>316</v>
+      </c>
+      <c r="B319">
+        <v>316</v>
+      </c>
+      <c r="C319" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A320">
+        <v>317</v>
+      </c>
+      <c r="B320">
+        <v>317</v>
+      </c>
+      <c r="C320" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A321">
+        <v>318</v>
+      </c>
+      <c r="B321">
+        <v>318</v>
+      </c>
+      <c r="C321" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A322">
+        <v>319</v>
+      </c>
+      <c r="B322">
+        <v>319</v>
+      </c>
+      <c r="C322" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A323">
+        <v>320</v>
+      </c>
+      <c r="B323">
+        <v>320</v>
+      </c>
+      <c r="C323" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A324">
+        <v>321</v>
+      </c>
+      <c r="B324">
+        <v>321</v>
+      </c>
+      <c r="C324" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A325">
+        <v>322</v>
+      </c>
+      <c r="B325">
+        <v>322</v>
+      </c>
+      <c r="C325" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A326">
+        <v>323</v>
+      </c>
+      <c r="B326">
+        <v>323</v>
+      </c>
+      <c r="C326" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A327">
+        <v>324</v>
+      </c>
+      <c r="B327">
+        <v>324</v>
+      </c>
+      <c r="C327" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A328">
+        <v>325</v>
+      </c>
+      <c r="B328">
+        <v>325</v>
+      </c>
+      <c r="C328" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A329">
+        <v>326</v>
+      </c>
+      <c r="B329">
+        <v>326</v>
+      </c>
+      <c r="C329" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A330">
+        <v>327</v>
+      </c>
+      <c r="B330">
+        <v>327</v>
+      </c>
+      <c r="C330" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A331">
+        <v>328</v>
+      </c>
+      <c r="B331">
+        <v>328</v>
+      </c>
+      <c r="C331" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A332">
+        <v>329</v>
+      </c>
+      <c r="B332">
+        <v>329</v>
+      </c>
+      <c r="C332" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A333">
+        <v>330</v>
+      </c>
+      <c r="B333">
+        <v>330</v>
+      </c>
+      <c r="C333" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A334">
+        <v>331</v>
+      </c>
+      <c r="B334">
+        <v>331</v>
+      </c>
+      <c r="C334" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A335">
+        <v>332</v>
+      </c>
+      <c r="B335">
+        <v>332</v>
+      </c>
+      <c r="C335" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A336">
+        <v>333</v>
+      </c>
+      <c r="B336">
+        <v>333</v>
+      </c>
+      <c r="C336" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A337">
+        <v>334</v>
+      </c>
+      <c r="B337">
+        <v>334</v>
+      </c>
+      <c r="C337" t="s">
+        <v>446</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCF30C7-A4C2-4ED6-ADC7-E96BCD199BDA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37907F73-F488-4B72-9E32-667A34BACED8}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1775BB3-6AC1-4BC3-B00F-1E206CDB3D95}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="12.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FCF30C7-A4C2-4ED6-ADC7-E96BCD199BDA}">
+  <dimension ref="A1:V27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="33.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V2" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V20" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V22" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V23" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U26" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V26" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="O27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>-1</v>
+      </c>
+      <c r="R27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="T27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="U27" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V27" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009028BC-0AC7-4B3D-8EA8-50B84DD356CE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
